--- a/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Date To</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsible</t>
+    <t xml:space="preserve">Validated By</t>
   </si>
   <si>
     <t xml:space="preserve">Run By</t>
@@ -1730,18 +1730,17 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.3979591836735"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.8775510204082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.719387755102"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="3" width="21.2397959183673"/>
     <col collapsed="false" hidden="false" max="1010" min="9" style="4" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.5204081632653"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SLA Receipt Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -1480,7 +1480,7 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="7">
@@ -1727,23 +1727,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:11"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.3979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1010" min="9" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1010" min="9" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1011" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11931,7 +11931,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11946,15 +11946,15 @@
   </sheetPr>
   <dimension ref="A1:B459"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15019,7 +15019,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">SLA Receipt Report</t>
   </si>
@@ -77,1411 +77,19 @@
     <t xml:space="preserve">Greater Than 3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ปฏิทิน </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2017-2018</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 1/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 2/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 3/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 4/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 5/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 6/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 7/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 8/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 9/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 10/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 11/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 12/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 13/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 14/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 15/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 16/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 17/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 18/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 19/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 20/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 21/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 22/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 23/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 24/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 25/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 26/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 27/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 28/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 29/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 30/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 31/1/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 1/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 2/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 3/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 4/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 5/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 6/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 7/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 8/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 9/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 10/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 11/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 12/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 13/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 14/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 15/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 16/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 17/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 18/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 19/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 20/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 21/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 22/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 23/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 24/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 25/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 26/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 27/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 28/2/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 1/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 2/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 3/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 4/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 5/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 6/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 7/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 8/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 9/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 10/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 11/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 12/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 13/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 14/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 15/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 16/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 17/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 18/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 19/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 20/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 21/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 22/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 23/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 24/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 25/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 26/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 27/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 28/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 29/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 30/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 31/3/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 1/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 2/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 3/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 4/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 5/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 6/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 7/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 8/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 9/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 10/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 11/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 12/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 13/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 14/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 15/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 16/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 17/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 18/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 19/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 20/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 21/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 22/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 23/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 24/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 25/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 26/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 27/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 28/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 29/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 30/4/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 1/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 2/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 3/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 4/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 5/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 6/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 7/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 8/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 9/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 10/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 11/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 12/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 13/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 14/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 15/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 16/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 17/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 18/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 19/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 20/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 21/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 22/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 23/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 24/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 25/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 26/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 27/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 28/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 29/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 30/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 31/5/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 1/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 2/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 3/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 4/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 5/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 6/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 7/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 8/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 9/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 10/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 11/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 12/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 13/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 14/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 15/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 16/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 17/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 18/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 19/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 20/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 21/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 22/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 23/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 24/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 25/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 26/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 27/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 28/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 29/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 30/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 1/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 2/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 3/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 4/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 5/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 6/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 7/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 8/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 9/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 10/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 11/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 12/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 13/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 14/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 15/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 16/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 17/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 18/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 19/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 20/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 21/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 22/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 23/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 24/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 25/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 26/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 27/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 28/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 29/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 30/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 31/7/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 1/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 2/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 3/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 4/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 5/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 6/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 7/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 8/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 9/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 10/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 11/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 12/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 13/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 14/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 15/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 16/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 17/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 18/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 19/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 20/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 21/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 22/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 23/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 24/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 25/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 26/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 27/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 28/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 29/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 30/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 31/8/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 1/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 2/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 3/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 4/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 5/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 6/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 7/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 8/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 9/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 10/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 11/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 12/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 13/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 14/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 15/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 16/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 17/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 18/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 19/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 20/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 21/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 22/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 23/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 24/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 25/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 26/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 27/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 28/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 29/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 30/9/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 1/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 2/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 3/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 4/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 5/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 6/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 7/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 8/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 9/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 10/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 11/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 12/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 13/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 14/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 15/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 16/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 17/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 18/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 19/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 20/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 21/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 22/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 23/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 24/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 25/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 26/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 27/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 28/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 29/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 30/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 31/10/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 1/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 2/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 3/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 4/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 5/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 6/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 7/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 8/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 9/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 10/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 11/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 12/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 13/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 14/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 15/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 16/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 17/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 18/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 19/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 20/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 21/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 22/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 23/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 24/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 25/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 26/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 27/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 28/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 29/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 30/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 1/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 2/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 3/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 4/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 5/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 6/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 7/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 8/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 9/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 10/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 11/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 12/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 13/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 14/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 15/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 16/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 17/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 18/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 19/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 20/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 21/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 22/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 23/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 24/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 25/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 26/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 27/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 28/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 29/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 30/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 31/12/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 1/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 2/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 3/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 4/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 5/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 6/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 7/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 8/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 9/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 10/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 11/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 12/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 13/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 14/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 15/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 16/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 17/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 18/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 19/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 20/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 21/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 22/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 23/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 24/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 25/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 26/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 27/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 28/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 29/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 30/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 31/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 1/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 2/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 3/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 4/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 5/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 6/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 7/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 8/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 9/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 10/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 11/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 12/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 13/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 14/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 15/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 16/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 17/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 18/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 19/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 20/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 21/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 22/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 23/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 24/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 25/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 26/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 27/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 28/2/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 1/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 2/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 3/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 4/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 5/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 6/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 7/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 8/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 9/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 10/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 11/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 12/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 13/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 14/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 15/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 16/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 17/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 18/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 19/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 20/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 21/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 22/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 23/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 24/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 25/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 26/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 27/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday 28/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 29/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 30/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday 31/3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday 1/4/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 2/4/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday 3/4/2018</t>
+    <t xml:space="preserve">ปฏิทิน 2018-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1581,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1630,34 +238,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -11944,7 +10560,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -11952,3071 +10568,2287 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="27.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="14" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="15"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="15"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="15"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="15"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="15"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="15"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="15"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="15"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="15"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="15"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="15"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="15"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="15"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="15"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="15"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96" s="15"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" s="15"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" s="15"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" s="15"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" s="15"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" s="15"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" s="15"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" s="15"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B119" s="15"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B122" s="15"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B123" s="15"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B124" s="15"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B125" s="15"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="15"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B129" s="15"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="15"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" s="15"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B136" s="15"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137" s="15"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138" s="15"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B139" s="15"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" s="15"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B143" s="15"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B144" s="15"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B145" s="15"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B146" s="15"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B147" s="15"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B150" s="15"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B151" s="15"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B152" s="15"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B153" s="15"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B154" s="15"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B157" s="15"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B159" s="15"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B160" s="15"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B161" s="15"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B164" s="15"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B165" s="15"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B166" s="15"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B167" s="15"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B168" s="15"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B171" s="15"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B172" s="15"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B173" s="15"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B174" s="15"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B175" s="15"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B178" s="15"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B179" s="15"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B180" s="15"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B181" s="15"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B182" s="15"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B185" s="15"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B186" s="15"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B187" s="15"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B188" s="15"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B189" s="15"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B193" s="15"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B194" s="15"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B195" s="15"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B196" s="15"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B199" s="15"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B200" s="15"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B201" s="15"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B202" s="15"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B203" s="15"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B206" s="15"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B207" s="15"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B208" s="15"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B209" s="15"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" s="15"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" s="15"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B215" s="15"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B216" s="15"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B217" s="15"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" s="15"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B221" s="15"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" s="15"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B223" s="15"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B224" s="15"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B226" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B227" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B228" s="15"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B229" s="15"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B230" s="15"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B231" s="15"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B232" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B234" s="15"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B235" s="15"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B236" s="15"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B237" s="15"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B238" s="15"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B241" s="15"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B242" s="15"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B243" s="15"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B244" s="15"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B245" s="15"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B248" s="15"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B249" s="15"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B250" s="15"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B251" s="15"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B252" s="15"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B255" s="15"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B256" s="15"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B257" s="15"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B258" s="15"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B259" s="15"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B260" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B262" s="15"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B263" s="15"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B264" s="15"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B265" s="15"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B266" s="15"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B269" s="15"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B270" s="15"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B271" s="15"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B272" s="15"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B273" s="15"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B276" s="15"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B277" s="15"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B278" s="15"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B279" s="15"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B280" s="15"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B281" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B283" s="15"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B284" s="15"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B285" s="15"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B286" s="15"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B288" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B290" s="15"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B291" s="15"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B292" s="15"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B293" s="15"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B294" s="15"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B297" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B298" s="15"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B299" s="15"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B300" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B301" s="15"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B303" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B304" s="15"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B305" s="15"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B306" s="15"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B307" s="15"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B308" s="15"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B309" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B310" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B311" s="15"/>
-    </row>
-    <row r="312" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B312" s="15"/>
-    </row>
-    <row r="313" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B313" s="15"/>
-    </row>
-    <row r="314" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="B314" s="15"/>
-    </row>
-    <row r="315" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B315" s="15"/>
-    </row>
-    <row r="316" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B316" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B317" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B318" s="15"/>
-    </row>
-    <row r="319" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B319" s="15"/>
-    </row>
-    <row r="320" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B320" s="15"/>
-    </row>
-    <row r="321" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B321" s="15"/>
-    </row>
-    <row r="322" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B322" s="15"/>
-    </row>
-    <row r="323" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B323" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B324" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B325" s="15"/>
-    </row>
-    <row r="326" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B326" s="15"/>
-    </row>
-    <row r="327" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B327" s="15"/>
-    </row>
-    <row r="328" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B328" s="15"/>
-    </row>
-    <row r="329" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B329" s="15"/>
-    </row>
-    <row r="330" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B330" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B331" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B332" s="15"/>
-    </row>
-    <row r="333" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B333" s="15"/>
-    </row>
-    <row r="334" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B334" s="15"/>
-    </row>
-    <row r="335" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B335" s="15"/>
-    </row>
-    <row r="336" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B336" s="15"/>
-    </row>
-    <row r="337" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B337" s="13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B338" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="B339" s="15"/>
-    </row>
-    <row r="340" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B340" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="B341" s="15"/>
-    </row>
-    <row r="342" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B342" s="15"/>
-    </row>
-    <row r="343" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B343" s="15"/>
-    </row>
-    <row r="344" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B344" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B345" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B346" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B347" s="15"/>
-    </row>
-    <row r="348" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="B348" s="15"/>
-    </row>
-    <row r="349" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="B349" s="15"/>
-    </row>
-    <row r="350" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B350" s="15"/>
-    </row>
-    <row r="351" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B351" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B352" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="B353" s="15"/>
-    </row>
-    <row r="354" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B354" s="15"/>
-    </row>
-    <row r="355" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B355" s="15"/>
-    </row>
-    <row r="356" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B356" s="15"/>
-    </row>
-    <row r="357" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="B357" s="15"/>
-    </row>
-    <row r="358" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B358" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B359" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B360" s="15"/>
-    </row>
-    <row r="361" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B361" s="15"/>
-    </row>
-    <row r="362" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B362" s="15"/>
-    </row>
-    <row r="363" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B363" s="15"/>
-    </row>
-    <row r="364" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B364" s="15"/>
-    </row>
-    <row r="365" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="B365" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="B366" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B367" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B368" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B369" s="15"/>
-    </row>
-    <row r="370" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B370" s="15"/>
-    </row>
-    <row r="371" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="B371" s="15"/>
-    </row>
-    <row r="372" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B373" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B374" s="15"/>
-    </row>
-    <row r="375" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B375" s="15"/>
-    </row>
-    <row r="376" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B376" s="15"/>
-    </row>
-    <row r="377" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B377" s="15"/>
-    </row>
-    <row r="378" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B378" s="15"/>
-    </row>
-    <row r="379" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="B379" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B380" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B381" s="15"/>
-    </row>
-    <row r="382" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B382" s="15"/>
-    </row>
-    <row r="383" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B383" s="15"/>
-    </row>
-    <row r="384" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B384" s="15"/>
-    </row>
-    <row r="385" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B385" s="15"/>
-    </row>
-    <row r="386" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="B386" s="16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B387" s="16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B388" s="15"/>
-    </row>
-    <row r="389" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B389" s="15"/>
-    </row>
-    <row r="390" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B390" s="15"/>
-    </row>
-    <row r="391" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B391" s="15"/>
-    </row>
-    <row r="392" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B392" s="15"/>
-    </row>
-    <row r="393" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="B393" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B394" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B395" s="15"/>
-    </row>
-    <row r="396" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="B396" s="15"/>
-    </row>
-    <row r="397" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B397" s="15"/>
-    </row>
-    <row r="398" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B398" s="15"/>
-    </row>
-    <row r="399" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B399" s="15"/>
-    </row>
-    <row r="400" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B400" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="B402" s="15"/>
-    </row>
-    <row r="403" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B403" s="15"/>
-    </row>
-    <row r="404" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B404" s="15"/>
-    </row>
-    <row r="405" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B405" s="15"/>
-    </row>
-    <row r="406" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B406" s="15"/>
-    </row>
-    <row r="407" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B409" s="15"/>
-    </row>
-    <row r="410" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="B410" s="15"/>
-    </row>
-    <row r="411" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B411" s="15"/>
-    </row>
-    <row r="412" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B412" s="15"/>
-    </row>
-    <row r="413" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B413" s="15"/>
-    </row>
-    <row r="414" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B414" s="16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B415" s="16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B416" s="15"/>
-    </row>
-    <row r="417" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B417" s="15"/>
-    </row>
-    <row r="418" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B418" s="15"/>
-    </row>
-    <row r="419" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="B419" s="15"/>
-    </row>
-    <row r="420" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B420" s="15"/>
-    </row>
-    <row r="421" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B421" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B422" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B423" s="15"/>
-    </row>
-    <row r="424" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B424" s="15"/>
-    </row>
-    <row r="425" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B425" s="15"/>
-    </row>
-    <row r="426" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B426" s="15"/>
-    </row>
-    <row r="427" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B427" s="15"/>
-    </row>
-    <row r="428" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B428" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="B430" s="15"/>
-    </row>
-    <row r="431" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B431" s="15"/>
-    </row>
-    <row r="432" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B432" s="15"/>
-    </row>
-    <row r="433" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B433" s="15"/>
-    </row>
-    <row r="434" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B434" s="15"/>
-    </row>
-    <row r="435" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="B435" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B436" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B437" s="15"/>
-    </row>
-    <row r="438" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B438" s="15"/>
-    </row>
-    <row r="439" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B439" s="15"/>
-    </row>
-    <row r="440" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B440" s="15"/>
-    </row>
-    <row r="441" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="B441" s="15"/>
-    </row>
-    <row r="442" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B442" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B443" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B444" s="15"/>
-    </row>
-    <row r="445" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B445" s="15"/>
-    </row>
-    <row r="446" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B446" s="15"/>
-    </row>
-    <row r="447" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="B447" s="15"/>
-    </row>
-    <row r="448" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B448" s="15"/>
-    </row>
-    <row r="449" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B449" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B450" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B451" s="15"/>
-    </row>
-    <row r="452" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B452" s="15"/>
-    </row>
-    <row r="453" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B453" s="15"/>
-    </row>
-    <row r="454" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B454" s="15"/>
-    </row>
-    <row r="455" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B455" s="15"/>
-    </row>
-    <row r="456" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B456" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="B457" s="14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="B458" s="15"/>
-    </row>
-    <row r="459" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="B459" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>43375</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>43376</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>43377</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>43378</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>43379</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>43380</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>43381</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>43382</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>43383</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>43384</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>43385</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>43386</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>43387</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>43388</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>43389</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>43390</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>43391</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>43392</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>43393</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>43394</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>43395</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>43396</v>
+      </c>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>43397</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>43398</v>
+      </c>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>43399</v>
+      </c>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>43400</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>43401</v>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>43401</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>43402</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>43403</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>43404</v>
+      </c>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <v>43406</v>
+      </c>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <v>43407</v>
+      </c>
+      <c r="B35" s="13" t="n">
+        <v>43407</v>
+      </c>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <v>43408</v>
+      </c>
+      <c r="B36" s="13" t="n">
+        <v>43408</v>
+      </c>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>43409</v>
+      </c>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>43410</v>
+      </c>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>43411</v>
+      </c>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
+        <v>43412</v>
+      </c>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>43413</v>
+      </c>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="n">
+        <v>43414</v>
+      </c>
+      <c r="B42" s="13" t="n">
+        <v>43414</v>
+      </c>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B43" s="13" t="n">
+        <v>43415</v>
+      </c>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
+        <v>43416</v>
+      </c>
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>43417</v>
+      </c>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="n">
+        <v>43418</v>
+      </c>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="n">
+        <v>43419</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="n">
+        <v>43420</v>
+      </c>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B49" s="13" t="n">
+        <v>43421</v>
+      </c>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B50" s="13" t="n">
+        <v>43422</v>
+      </c>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="n">
+        <v>43423</v>
+      </c>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
+        <v>43424</v>
+      </c>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="n">
+        <v>43425</v>
+      </c>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="n">
+        <v>43426</v>
+      </c>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="n">
+        <v>43427</v>
+      </c>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="n">
+        <v>43428</v>
+      </c>
+      <c r="B56" s="13" t="n">
+        <v>43428</v>
+      </c>
+      <c r="C56" s="17"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="n">
+        <v>43429</v>
+      </c>
+      <c r="B57" s="13" t="n">
+        <v>43429</v>
+      </c>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="n">
+        <v>43430</v>
+      </c>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="n">
+        <v>43431</v>
+      </c>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="n">
+        <v>43432</v>
+      </c>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="n">
+        <v>43433</v>
+      </c>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="n">
+        <v>43434</v>
+      </c>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B63" s="13" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B64" s="13" t="n">
+        <v>43436</v>
+      </c>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="n">
+        <v>43437</v>
+      </c>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="n">
+        <v>43438</v>
+      </c>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B67" s="13" t="n">
+        <v>43439</v>
+      </c>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="n">
+        <v>43440</v>
+      </c>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12" t="n">
+        <v>43441</v>
+      </c>
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="n">
+        <v>43442</v>
+      </c>
+      <c r="B70" s="13" t="n">
+        <v>43442</v>
+      </c>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="n">
+        <v>43443</v>
+      </c>
+      <c r="B71" s="13" t="n">
+        <v>43443</v>
+      </c>
+      <c r="C71" s="17"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="n">
+        <v>43444</v>
+      </c>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="n">
+        <v>43445</v>
+      </c>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="n">
+        <v>43446</v>
+      </c>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>43447</v>
+      </c>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="n">
+        <v>43448</v>
+      </c>
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="n">
+        <v>43449</v>
+      </c>
+      <c r="B77" s="13" t="n">
+        <v>43449</v>
+      </c>
+      <c r="C77" s="17"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B78" s="13" t="n">
+        <v>43450</v>
+      </c>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12" t="n">
+        <v>43451</v>
+      </c>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12" t="n">
+        <v>43452</v>
+      </c>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12" t="n">
+        <v>43453</v>
+      </c>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="n">
+        <v>43454</v>
+      </c>
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12" t="n">
+        <v>43455</v>
+      </c>
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12" t="n">
+        <v>43456</v>
+      </c>
+      <c r="B84" s="13" t="n">
+        <v>43456</v>
+      </c>
+      <c r="C84" s="17"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="n">
+        <v>43457</v>
+      </c>
+      <c r="B85" s="13" t="n">
+        <v>43457</v>
+      </c>
+      <c r="C85" s="17"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="n">
+        <v>43458</v>
+      </c>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="n">
+        <v>43459</v>
+      </c>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="n">
+        <v>43460</v>
+      </c>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="n">
+        <v>43461</v>
+      </c>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="n">
+        <v>43462</v>
+      </c>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="n">
+        <v>43463</v>
+      </c>
+      <c r="B91" s="13" t="n">
+        <v>43463</v>
+      </c>
+      <c r="C91" s="17"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12" t="n">
+        <v>43464</v>
+      </c>
+      <c r="B92" s="13" t="n">
+        <v>43464</v>
+      </c>
+      <c r="C92" s="17"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B93" s="13" t="n">
+        <v>43465</v>
+      </c>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B94" s="13" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="n">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="n">
+        <v>43468</v>
+      </c>
+      <c r="C96" s="18"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="n">
+        <v>43469</v>
+      </c>
+      <c r="C97" s="18"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="n">
+        <v>43470</v>
+      </c>
+      <c r="B98" s="13" t="n">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="n">
+        <v>43471</v>
+      </c>
+      <c r="B99" s="13" t="n">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="12" t="n">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12" t="n">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="n">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12" t="n">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12" t="n">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="n">
+        <v>43477</v>
+      </c>
+      <c r="B105" s="13" t="n">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="12" t="n">
+        <v>43478</v>
+      </c>
+      <c r="B106" s="13" t="n">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12" t="n">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12" t="n">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12" t="n">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="n">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12" t="n">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12" t="n">
+        <v>43484</v>
+      </c>
+      <c r="B112" s="13" t="n">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12" t="n">
+        <v>43485</v>
+      </c>
+      <c r="B113" s="13" t="n">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="12" t="n">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="n">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="12" t="n">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="n">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12" t="n">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="n">
+        <v>43491</v>
+      </c>
+      <c r="B119" s="13" t="n">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="12" t="n">
+        <v>43492</v>
+      </c>
+      <c r="B120" s="13" t="n">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="12" t="n">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="12" t="n">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="12" t="n">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="12" t="n">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="12" t="n">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="12" t="n">
+        <v>43498</v>
+      </c>
+      <c r="B126" s="13" t="n">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="12" t="n">
+        <v>43499</v>
+      </c>
+      <c r="B127" s="13" t="n">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="12" t="n">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="12" t="n">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="12" t="n">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="12" t="n">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="12" t="n">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="12" t="n">
+        <v>43505</v>
+      </c>
+      <c r="B133" s="13" t="n">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="12" t="n">
+        <v>43506</v>
+      </c>
+      <c r="B134" s="13" t="n">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="12" t="n">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="12" t="n">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="12" t="n">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="12" t="n">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="12" t="n">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="12" t="n">
+        <v>43512</v>
+      </c>
+      <c r="B140" s="13" t="n">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="12" t="n">
+        <v>43513</v>
+      </c>
+      <c r="B141" s="13" t="n">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="12" t="n">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="12" t="n">
+        <v>43515</v>
+      </c>
+      <c r="B143" s="13" t="n">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="12" t="n">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="12" t="n">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="12" t="n">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="12" t="n">
+        <v>43519</v>
+      </c>
+      <c r="B147" s="13" t="n">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="12" t="n">
+        <v>43520</v>
+      </c>
+      <c r="B148" s="13" t="n">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="12" t="n">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="12" t="n">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="12" t="n">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="12" t="n">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="12" t="n">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="12" t="n">
+        <v>43526</v>
+      </c>
+      <c r="B154" s="13" t="n">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="12" t="n">
+        <v>43527</v>
+      </c>
+      <c r="B155" s="13" t="n">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="12" t="n">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="12" t="n">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="12" t="n">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="12" t="n">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="12" t="n">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="12" t="n">
+        <v>43533</v>
+      </c>
+      <c r="B161" s="13" t="n">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="12" t="n">
+        <v>43534</v>
+      </c>
+      <c r="B162" s="13" t="n">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="12" t="n">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="12" t="n">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="12" t="n">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="12" t="n">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="12" t="n">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="12" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B168" s="13" t="n">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="12" t="n">
+        <v>43541</v>
+      </c>
+      <c r="B169" s="13" t="n">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="12" t="n">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="12" t="n">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="12" t="n">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="12" t="n">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="12" t="n">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="12" t="n">
+        <v>43547</v>
+      </c>
+      <c r="B175" s="13" t="n">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="12" t="n">
+        <v>43548</v>
+      </c>
+      <c r="B176" s="13" t="n">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="12" t="n">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="12" t="n">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="12" t="n">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="12" t="n">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="12" t="n">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="12" t="n">
+        <v>43554</v>
+      </c>
+      <c r="B182" s="13" t="n">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="12" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B183" s="13" t="n">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="12" t="n">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="12" t="n">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="12" t="n">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="12" t="n">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="12" t="n">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="12" t="n">
+        <v>43561</v>
+      </c>
+      <c r="B189" s="13" t="n">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="12" t="n">
+        <v>43562</v>
+      </c>
+      <c r="B190" s="13" t="n">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="12" t="n">
+        <v>43563</v>
+      </c>
+      <c r="B191" s="13" t="n">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="12" t="n">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="12" t="n">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="12" t="n">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="12" t="n">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="12" t="n">
+        <v>43568</v>
+      </c>
+      <c r="B196" s="13" t="n">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="12" t="n">
+        <v>43569</v>
+      </c>
+      <c r="B197" s="13" t="n">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="12" t="n">
+        <v>43570</v>
+      </c>
+      <c r="B198" s="13" t="n">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="12" t="n">
+        <v>43571</v>
+      </c>
+      <c r="B199" s="13" t="n">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="12" t="n">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="12" t="n">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="12" t="n">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="12" t="n">
+        <v>43575</v>
+      </c>
+      <c r="B203" s="13" t="n">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="12" t="n">
+        <v>43576</v>
+      </c>
+      <c r="B204" s="13" t="n">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="12" t="n">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="12" t="n">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="12" t="n">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="12" t="n">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="12" t="n">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="12" t="n">
+        <v>43582</v>
+      </c>
+      <c r="B210" s="13" t="n">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="12" t="n">
+        <v>43583</v>
+      </c>
+      <c r="B211" s="13" t="n">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="12" t="n">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="12" t="n">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="12" t="n">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="12" t="n">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="12" t="n">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="12" t="n">
+        <v>43589</v>
+      </c>
+      <c r="B217" s="13" t="n">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="12" t="n">
+        <v>43590</v>
+      </c>
+      <c r="B218" s="13" t="n">
+        <v>43590</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="12" t="n">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="12" t="n">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="12" t="n">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="12" t="n">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="12" t="n">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="12" t="n">
+        <v>43596</v>
+      </c>
+      <c r="B224" s="13" t="n">
+        <v>43596</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="12" t="n">
+        <v>43597</v>
+      </c>
+      <c r="B225" s="13" t="n">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="12" t="n">
+        <v>43598</v>
+      </c>
+      <c r="B226" s="13" t="n">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="12" t="n">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="12" t="n">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="12" t="n">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="12" t="n">
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="12" t="n">
+        <v>43603</v>
+      </c>
+      <c r="B231" s="13" t="n">
+        <v>43603</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="12" t="n">
+        <v>43604</v>
+      </c>
+      <c r="B232" s="13" t="n">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="12" t="n">
+        <v>43605</v>
+      </c>
+      <c r="B233" s="13" t="n">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="12" t="n">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="12" t="n">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="12" t="n">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="12" t="n">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="12" t="n">
+        <v>43610</v>
+      </c>
+      <c r="B238" s="13" t="n">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="12" t="n">
+        <v>43611</v>
+      </c>
+      <c r="B239" s="13" t="n">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="12" t="n">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="12" t="n">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="12" t="n">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="12" t="n">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="12" t="n">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="12" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B245" s="13" t="n">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="12" t="n">
+        <v>43618</v>
+      </c>
+      <c r="B246" s="13" t="n">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="12" t="n">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="12" t="n">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="12" t="n">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="12" t="n">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="12" t="n">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="12" t="n">
+        <v>43624</v>
+      </c>
+      <c r="B252" s="13" t="n">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="12" t="n">
+        <v>43625</v>
+      </c>
+      <c r="B253" s="13" t="n">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="12" t="n">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="12" t="n">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="12" t="n">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="12" t="n">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="12" t="n">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="12" t="n">
+        <v>43631</v>
+      </c>
+      <c r="B259" s="13" t="n">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="12" t="n">
+        <v>43632</v>
+      </c>
+      <c r="B260" s="13" t="n">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="12" t="n">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="12" t="n">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="12" t="n">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="12" t="n">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="12" t="n">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="12" t="n">
+        <v>43638</v>
+      </c>
+      <c r="B266" s="13" t="n">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="12" t="n">
+        <v>43639</v>
+      </c>
+      <c r="B267" s="13" t="n">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="12" t="n">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="12" t="n">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="12" t="n">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="12" t="n">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="12" t="n">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="12" t="n">
+        <v>43645</v>
+      </c>
+      <c r="B273" s="13" t="n">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="12" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B274" s="13" t="n">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="12" t="n">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="12" t="n">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="12" t="n">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="12" t="n">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="12" t="n">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="12" t="n">
+        <v>43652</v>
+      </c>
+      <c r="B280" s="13" t="n">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="12" t="n">
+        <v>43653</v>
+      </c>
+      <c r="B281" s="13" t="n">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="12" t="n">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="12" t="n">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="12" t="n">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="12" t="n">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="12" t="n">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="12" t="n">
+        <v>43659</v>
+      </c>
+      <c r="B287" s="13" t="n">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="12" t="n">
+        <v>43660</v>
+      </c>
+      <c r="B288" s="13" t="n">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="12" t="n">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="12" t="n">
+        <v>43662</v>
+      </c>
+      <c r="B290" s="13" t="n">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="12" t="n">
+        <v>43663</v>
+      </c>
+      <c r="B291" s="13" t="n">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="12" t="n">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="12" t="n">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="12" t="n">
+        <v>43666</v>
+      </c>
+      <c r="B294" s="13" t="n">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="12" t="n">
+        <v>43667</v>
+      </c>
+      <c r="B295" s="13" t="n">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="12" t="n">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="12" t="n">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="12" t="n">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="12" t="n">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="12" t="n">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="12" t="n">
+        <v>43673</v>
+      </c>
+      <c r="B301" s="13" t="n">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="12" t="n">
+        <v>43674</v>
+      </c>
+      <c r="B302" s="13" t="n">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="12" t="n">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="12" t="n">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="12" t="n">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="12" t="n">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="12" t="n">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="12" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B308" s="13" t="n">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="12" t="n">
+        <v>43681</v>
+      </c>
+      <c r="B309" s="13" t="n">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="12" t="n">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="12" t="n">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="12" t="n">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="12" t="n">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="12" t="n">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="12" t="n">
+        <v>43687</v>
+      </c>
+      <c r="B315" s="13" t="n">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="12" t="n">
+        <v>43688</v>
+      </c>
+      <c r="B316" s="13" t="n">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="12" t="n">
+        <v>43689</v>
+      </c>
+      <c r="B317" s="13" t="n">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="12" t="n">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="12" t="n">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="12" t="n">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="12" t="n">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="12" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B322" s="13" t="n">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="12" t="n">
+        <v>43695</v>
+      </c>
+      <c r="B323" s="13" t="n">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="12" t="n">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="12" t="n">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="12" t="n">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="12" t="n">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="12" t="n">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="12" t="n">
+        <v>43701</v>
+      </c>
+      <c r="B329" s="13" t="n">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="12" t="n">
+        <v>43702</v>
+      </c>
+      <c r="B330" s="13" t="n">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="12" t="n">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="12" t="n">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="12" t="n">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="12" t="n">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="12" t="n">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="12" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B336" s="13" t="n">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="12" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B337" s="13" t="n">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="12" t="n">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="12" t="n">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="12" t="n">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="12" t="n">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="12" t="n">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="12" t="n">
+        <v>43715</v>
+      </c>
+      <c r="B343" s="13" t="n">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="12" t="n">
+        <v>43716</v>
+      </c>
+      <c r="B344" s="13" t="n">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="12" t="n">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="12" t="n">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="12" t="n">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="12" t="n">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="12" t="n">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="12" t="n">
+        <v>43722</v>
+      </c>
+      <c r="B350" s="13" t="n">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="12" t="n">
+        <v>43723</v>
+      </c>
+      <c r="B351" s="13" t="n">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="12" t="n">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="12" t="n">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="12" t="n">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="12" t="n">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="12" t="n">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="12" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B357" s="13" t="n">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="12" t="n">
+        <v>43730</v>
+      </c>
+      <c r="B358" s="13" t="n">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="12" t="n">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="12" t="n">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="12" t="n">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="12" t="n">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="12" t="n">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="12" t="n">
+        <v>43736</v>
+      </c>
+      <c r="B364" s="13" t="n">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="12" t="n">
+        <v>43737</v>
+      </c>
+      <c r="B365" s="13" t="n">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="12" t="n">
+        <v>43738</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_receipt.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="SLA Receipt Report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Holliday" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Holliday" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
